--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/OREGON_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/OREGON_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D888"/>
+  <dimension ref="A1:D882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
@@ -843,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="49">
@@ -1153,7 +1153,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C59">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C65">
@@ -1308,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="74">
@@ -1436,7 +1436,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C98">
@@ -1797,12 +1797,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C107">
@@ -1841,7 +1841,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C110">
@@ -1932,7 +1932,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C117">
@@ -1958,14 +1958,14 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C119">
         <v>4</v>
       </c>
       <c r="D119">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="120">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C125">
@@ -2127,20 +2127,20 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C132">
         <v>4</v>
       </c>
       <c r="D132">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C133">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C140">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C144">
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="147">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C152">
@@ -2457,7 +2457,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C157">
@@ -2561,7 +2561,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C165">
@@ -2633,13 +2633,13 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C171">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C173">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C176">
@@ -2740,7 +2740,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C178">
@@ -2753,7 +2753,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C179">
@@ -2792,7 +2792,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C182">
@@ -2818,7 +2818,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C184">
@@ -2831,7 +2831,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C185">
@@ -2870,20 +2870,20 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C188">
         <v>4</v>
       </c>
       <c r="D188">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C189">
@@ -2896,7 +2896,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C190">
@@ -2909,7 +2909,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C191">
@@ -2974,7 +2974,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C196">
@@ -2987,7 +2987,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C197">
@@ -3026,7 +3026,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C200">
@@ -3039,7 +3039,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C201">
@@ -3059,7 +3059,7 @@
         <v>4</v>
       </c>
       <c r="D202">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="203">
@@ -3078,7 +3078,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C204">
@@ -3091,7 +3091,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C205">
@@ -3104,7 +3104,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C206">
@@ -3228,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="D215">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="216">
@@ -3241,7 +3241,7 @@
         <v>4</v>
       </c>
       <c r="D216">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="217">
@@ -3260,7 +3260,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C218">
@@ -3286,7 +3286,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C220">
@@ -3312,7 +3312,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C222">
@@ -3325,7 +3325,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C223">
@@ -3364,7 +3364,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C226">
@@ -3486,7 +3486,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C235">
@@ -3499,7 +3499,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C236">
@@ -3538,7 +3538,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C239">
@@ -3577,7 +3577,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C242">
@@ -3603,7 +3603,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C244">
@@ -3655,7 +3655,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C248">
@@ -3668,7 +3668,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C249">
@@ -3681,7 +3681,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C250">
@@ -3694,7 +3694,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C251">
@@ -3707,14 +3707,14 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C252">
         <v>4</v>
       </c>
       <c r="D252">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="253">
@@ -3759,7 +3759,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C256">
@@ -3772,7 +3772,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C257">
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="D258">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="259">
@@ -3811,14 +3811,14 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C260">
         <v>4</v>
       </c>
       <c r="D260">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="261">
@@ -3837,7 +3837,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C262">
@@ -3889,7 +3889,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C266">
@@ -3902,7 +3902,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C267">
@@ -3959,7 +3959,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C271">
@@ -3972,7 +3972,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C272">
@@ -4024,7 +4024,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C276">
@@ -4063,14 +4063,14 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C279">
         <v>4</v>
       </c>
       <c r="D279">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="280">
@@ -4089,7 +4089,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C281">
@@ -4141,7 +4141,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C285">
@@ -4323,7 +4323,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C299">
@@ -4336,7 +4336,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C300">
@@ -4362,7 +4362,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C302">
@@ -4401,7 +4401,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C305">
@@ -4434,7 +4434,7 @@
         <v>4</v>
       </c>
       <c r="D307">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="308">
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="D311">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="312">
@@ -4505,7 +4505,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C313">
@@ -4531,7 +4531,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C315">
@@ -4570,7 +4570,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C318">
@@ -4648,7 +4648,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C324">
@@ -4674,7 +4674,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C326">
@@ -4687,7 +4687,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C327">
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="D328">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="329">
@@ -4746,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="D331">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="332">
@@ -4778,7 +4778,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C334">
@@ -4830,7 +4830,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C338">
@@ -4869,7 +4869,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C341">
@@ -4882,7 +4882,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C342">
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="D345">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="346">
@@ -5173,7 +5173,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C364">
@@ -5570,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="D394">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="395">
@@ -5583,7 +5583,7 @@
         <v>4</v>
       </c>
       <c r="D395">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="396">
@@ -5596,7 +5596,7 @@
         <v>4</v>
       </c>
       <c r="D396">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="397">
@@ -5973,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="D425">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="426">
@@ -6051,7 +6051,7 @@
         <v>4</v>
       </c>
       <c r="D431">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="432">
@@ -6064,7 +6064,7 @@
         <v>4</v>
       </c>
       <c r="D432">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="433">
@@ -6244,7 +6244,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C446">
@@ -6270,7 +6270,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C448">
@@ -6412,13 +6412,13 @@
         <v>4</v>
       </c>
       <c r="D458">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C459">
@@ -6431,7 +6431,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C460">
@@ -6470,7 +6470,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C463">
@@ -6529,7 +6529,7 @@
         <v>4</v>
       </c>
       <c r="D467">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="468">
@@ -6561,7 +6561,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C470">
@@ -6670,7 +6670,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C478">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C481">
@@ -6753,7 +6753,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C484">
@@ -6805,7 +6805,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C488">
@@ -6818,7 +6818,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C489">
@@ -6831,7 +6831,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C490">
@@ -6844,7 +6844,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C491">
@@ -6857,20 +6857,20 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C492">
         <v>4</v>
       </c>
       <c r="D492">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C493">
@@ -6922,20 +6922,20 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C497">
         <v>4</v>
       </c>
       <c r="D497">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C498">
@@ -6948,7 +6948,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C499">
@@ -6961,7 +6961,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C500">
@@ -6974,7 +6974,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C501">
@@ -7130,14 +7130,14 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C513">
         <v>4</v>
       </c>
       <c r="D513">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="514">
@@ -7221,7 +7221,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C520">
@@ -7306,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="D526">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="527">
@@ -7377,7 +7377,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C532">
@@ -7390,7 +7390,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C533">
@@ -7455,7 +7455,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C538">
@@ -7540,20 +7540,20 @@
         <v>4</v>
       </c>
       <c r="D544">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C545">
         <v>4</v>
       </c>
       <c r="D545">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="546">
@@ -7579,7 +7579,7 @@
         <v>4</v>
       </c>
       <c r="D547">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="548">
@@ -7618,7 +7618,7 @@
         <v>4</v>
       </c>
       <c r="D550">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="551">
@@ -7683,7 +7683,7 @@
         <v>4</v>
       </c>
       <c r="D555">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="556">
@@ -7715,7 +7715,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C558">
@@ -8079,7 +8079,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C586">
@@ -8144,7 +8144,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C591">
@@ -8157,7 +8157,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C592">
@@ -8170,7 +8170,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C593">
@@ -8183,7 +8183,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C594">
@@ -8196,7 +8196,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C595">
@@ -8209,7 +8209,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C596">
@@ -8222,7 +8222,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C597">
@@ -8364,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="D607">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="608">
@@ -8442,7 +8442,7 @@
         <v>4</v>
       </c>
       <c r="D613">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="614">
@@ -8487,7 +8487,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C617">
@@ -8539,7 +8539,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C621">
@@ -8604,7 +8604,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C626">
@@ -8903,7 +8903,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C649">
@@ -8916,7 +8916,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C650">
@@ -8955,7 +8955,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C653">
@@ -8968,7 +8968,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C654">
@@ -9072,7 +9072,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C662">
@@ -9111,7 +9111,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C665">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C669">
@@ -9181,7 +9181,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C670">
@@ -9214,13 +9214,13 @@
         <v>4</v>
       </c>
       <c r="D672">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C673">
@@ -9246,7 +9246,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C675">
@@ -9285,7 +9285,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C678">
@@ -9318,7 +9318,7 @@
         <v>38</v>
       </c>
       <c r="D680">
-        <v>0.009245742092457421</v>
+        <v>0.00924574209245742</v>
       </c>
     </row>
     <row r="681">
@@ -9451,7 +9451,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C690">
@@ -9490,7 +9490,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C693">
@@ -9554,7 +9554,7 @@
         <v>4</v>
       </c>
       <c r="D697">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="698">
@@ -9632,7 +9632,7 @@
         <v>4</v>
       </c>
       <c r="D703">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="704">
@@ -9858,13 +9858,13 @@
         <v>4</v>
       </c>
       <c r="D720">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C721">
@@ -10082,7 +10082,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C737">
@@ -10178,7 +10178,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C744">
@@ -10217,7 +10217,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C747">
@@ -10276,7 +10276,7 @@
         <v>4</v>
       </c>
       <c r="D751">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="752">
@@ -10339,7 +10339,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C756">
@@ -10352,7 +10352,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C757">
@@ -10430,7 +10430,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C763">
@@ -10450,13 +10450,13 @@
         <v>4</v>
       </c>
       <c r="D764">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C765">
@@ -10547,7 +10547,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C772">
@@ -10632,7 +10632,7 @@
         <v>4</v>
       </c>
       <c r="D778">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="779">
@@ -10658,7 +10658,7 @@
         <v>4</v>
       </c>
       <c r="D780">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="781">
@@ -10697,13 +10697,13 @@
         <v>4</v>
       </c>
       <c r="D783">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C784">
@@ -10768,7 +10768,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C789">
@@ -10866,7 +10866,7 @@
         <v>4</v>
       </c>
       <c r="D796">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="797">
@@ -10963,7 +10963,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C804">
@@ -11067,7 +11067,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C812">
@@ -11249,7 +11249,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C826">
@@ -11282,7 +11282,7 @@
         <v>4</v>
       </c>
       <c r="D828">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="829">
@@ -11469,7 +11469,7 @@
         <v>4</v>
       </c>
       <c r="D842">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="843">
@@ -11688,7 +11688,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C859">
@@ -11753,7 +11753,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C864">
@@ -11805,7 +11805,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C868">
@@ -11831,7 +11831,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C870">
@@ -11896,7 +11896,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C875">
@@ -11909,7 +11909,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C876">
@@ -11935,14 +11935,14 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C878">
         <v>4</v>
       </c>
       <c r="D878">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="879">
@@ -11955,7 +11955,7 @@
         <v>4</v>
       </c>
       <c r="D879">
-        <v>0.0009732360097323601</v>
+        <v>0.00097323600973236</v>
       </c>
     </row>
     <row r="880">
@@ -11995,41 +11995,6 @@
       </c>
       <c r="D882">
         <v>1</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="B884" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="885">
-      <c r="B885" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="B886" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="887">
-      <c r="B887" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="888">
-      <c r="B888" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
